--- a/BigDataAplicado/Unit06-ETL/Activity03/Resources/Calificaciones.xlsx
+++ b/BigDataAplicado/Unit06-ETL/Activity03/Resources/Calificaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalStuff\IABD\BigDataAplicado\Unit06-ETL\Activity03\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6B63A0-19B1-453A-8A9B-82D6101C3734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D416E206-751B-4B7C-871C-BE74A074362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NT01" sheetId="1" r:id="rId1"/>
@@ -1953,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:N64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10849,9 +10849,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC54275E-081C-4B5C-9B4F-3FE3983F3DA5}">
   <dimension ref="A1:BL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -11702,255 +11768,255 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>B2&amp;"@gmail.com"</f>
+        <f t="shared" ref="B6:AG6" si="0">B2&amp;"@gmail.com"</f>
         <v>luis@gmail.com</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>C2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>cristina irene@gmail.com</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>D2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>maria ines@gmail.com</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>E2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>sonia@gmail.com</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>F2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>victoria@gmail.com</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>G2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>mercedes@gmail.com</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>H2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>francisco antonio@gmail.com</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>I2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>leonardo@gmail.com</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>J2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>maria teresa@gmail.com</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>K2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>eva maria@gmail.com</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>L2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>mercedes@gmail.com</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f>M2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>paula@gmail.com</v>
       </c>
       <c r="N6" s="4" t="str">
-        <f>N2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>inmaculada@gmail.com</v>
       </c>
       <c r="O6" s="4" t="str">
-        <f>O2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>eva@gmail.com</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f>P2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>rosa@gmail.com</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>Q2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>carmen@gmail.com</v>
       </c>
       <c r="R6" s="4" t="str">
-        <f>R2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>carlos@gmail.com</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f>S2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>francisca@gmail.com</v>
       </c>
       <c r="T6" s="4" t="str">
-        <f>T2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>maría teresa@gmail.com</v>
       </c>
       <c r="U6" s="4" t="str">
-        <f>U2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>jesus@gmail.com</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f>V2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>roman@gmail.com</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f>W2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>carlos@gmail.com</v>
       </c>
       <c r="X6" s="4" t="str">
-        <f>X2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>josé@gmail.com</v>
       </c>
       <c r="Y6" s="4" t="str">
-        <f>Y2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>emilio eugenio@gmail.com</v>
       </c>
       <c r="Z6" s="4" t="str">
-        <f>Z2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>carmen clara@gmail.com</v>
       </c>
       <c r="AA6" s="4" t="str">
-        <f>AA2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>helena@gmail.com</v>
       </c>
       <c r="AB6" s="4" t="str">
-        <f>AB2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>mª del milagro@gmail.com</v>
       </c>
       <c r="AC6" s="4" t="str">
-        <f>AC2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>f. javier@gmail.com</v>
       </c>
       <c r="AD6" s="4" t="str">
-        <f>AD2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>maria jose@gmail.com</v>
       </c>
       <c r="AE6" s="4" t="str">
-        <f>AE2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>luis@gmail.com</v>
       </c>
       <c r="AF6" s="4" t="str">
-        <f>AF2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>estefania@gmail.com</v>
       </c>
       <c r="AG6" s="4" t="str">
-        <f>AG2&amp;"@gmail.com"</f>
+        <f t="shared" si="0"/>
         <v>sara@gmail.com</v>
       </c>
       <c r="AH6" s="4" t="str">
-        <f>AH2&amp;"@gmail.com"</f>
+        <f t="shared" ref="AH6:BL6" si="1">AH2&amp;"@gmail.com"</f>
         <v>rafael luis@gmail.com</v>
       </c>
       <c r="AI6" s="4" t="str">
-        <f>AI2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>diana florentina@gmail.com</v>
       </c>
       <c r="AJ6" s="4" t="str">
-        <f>AJ2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>fernando@gmail.com</v>
       </c>
       <c r="AK6" s="4" t="str">
-        <f>AK2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>isabel@gmail.com</v>
       </c>
       <c r="AL6" s="4" t="str">
-        <f>AL2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>mª honores@gmail.com</v>
       </c>
       <c r="AM6" s="4" t="str">
-        <f>AM2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>estela@gmail.com</v>
       </c>
       <c r="AN6" s="4" t="str">
-        <f>AN2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>juan jose@gmail.com</v>
       </c>
       <c r="AO6" s="4" t="str">
-        <f>AO2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>jose maria@gmail.com</v>
       </c>
       <c r="AP6" s="4" t="str">
-        <f>AP2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>circuncisión@gmail.com</v>
       </c>
       <c r="AQ6" s="4" t="str">
-        <f>AQ2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>juan carlos@gmail.com</v>
       </c>
       <c r="AR6" s="4" t="str">
-        <f>AR2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>patricia@gmail.com</v>
       </c>
       <c r="AS6" s="4" t="str">
-        <f>AS2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>luis javier@gmail.com</v>
       </c>
       <c r="AT6" s="4" t="str">
-        <f>AT2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>adela@gmail.com</v>
       </c>
       <c r="AU6" s="4" t="str">
-        <f>AU2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>mªteresa@gmail.com</v>
       </c>
       <c r="AV6" s="4" t="str">
-        <f>AV2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>isidro ricardo@gmail.com</v>
       </c>
       <c r="AW6" s="4" t="str">
-        <f>AW2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>juan carlos@gmail.com</v>
       </c>
       <c r="AX6" s="4" t="str">
-        <f>AX2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>maria eugenia@gmail.com</v>
       </c>
       <c r="AY6" s="4" t="str">
-        <f>AY2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>beatriz@gmail.com</v>
       </c>
       <c r="AZ6" s="4" t="str">
-        <f>AZ2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>jesus felipe@gmail.com</v>
       </c>
       <c r="BA6" s="4" t="str">
-        <f>BA2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>luis alfonso@gmail.com</v>
       </c>
       <c r="BB6" s="4" t="str">
-        <f>BB2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>sergio@gmail.com</v>
       </c>
       <c r="BC6" s="4" t="str">
-        <f>BC2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>lara@gmail.com</v>
       </c>
       <c r="BD6" s="4" t="str">
-        <f>BD2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>angeles@gmail.com</v>
       </c>
       <c r="BE6" s="4" t="str">
-        <f>BE2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>maria mercedes@gmail.com</v>
       </c>
       <c r="BF6" s="4" t="str">
-        <f>BF2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>joaquin@gmail.com</v>
       </c>
       <c r="BG6" s="4" t="str">
-        <f>BG2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>jose antonio@gmail.com</v>
       </c>
       <c r="BH6" s="4" t="str">
-        <f>BH2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>francisca@gmail.com</v>
       </c>
       <c r="BI6" s="4" t="str">
-        <f>BI2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>francisco@gmail.com</v>
       </c>
       <c r="BJ6" s="4" t="str">
-        <f>BJ2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>joaquín@gmail.com</v>
       </c>
       <c r="BK6" s="4" t="str">
-        <f>BK2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>maría teresa@gmail.com</v>
       </c>
       <c r="BL6" s="4" t="str">
-        <f>BL2&amp;"@gmail.com"</f>
+        <f t="shared" si="1"/>
         <v>oscar@gmail.com</v>
       </c>
     </row>
